--- a/src/main/resources/data/newRecData.xlsx
+++ b/src/main/resources/data/newRecData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="20200716 양방향 거래통계" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="20200727 양방향 거래통계" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -9643,6 +9643,64 @@
         <v>44200.0</v>
       </c>
     </row>
+    <row r="329">
+      <c r="A329" s="2">
+        <v>2.0200721E7</v>
+      </c>
+      <c r="B329" s="3">
+        <v>135849.0</v>
+      </c>
+      <c r="C329" s="3">
+        <v>44716.0</v>
+      </c>
+      <c r="D329" s="3">
+        <v>6.0746673E9</v>
+      </c>
+      <c r="E329" s="3">
+        <v>44400.0</v>
+      </c>
+      <c r="F329" s="2">
+        <v>45000.0</v>
+      </c>
+      <c r="G329" s="2">
+        <v>45000.0</v>
+      </c>
+      <c r="H329" s="3">
+        <v>45000.0</v>
+      </c>
+      <c r="I329" s="3">
+        <v>44400.0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2">
+        <v>2.0200723E7</v>
+      </c>
+      <c r="B330" s="3">
+        <v>101867.0</v>
+      </c>
+      <c r="C330" s="3">
+        <v>45059.0</v>
+      </c>
+      <c r="D330" s="3">
+        <v>4.5900848E9</v>
+      </c>
+      <c r="E330" s="3">
+        <v>44600.0</v>
+      </c>
+      <c r="F330" s="2">
+        <v>45000.0</v>
+      </c>
+      <c r="G330" s="2">
+        <v>45000.0</v>
+      </c>
+      <c r="H330" s="3">
+        <v>45700.0</v>
+      </c>
+      <c r="I330" s="3">
+        <v>44600.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
